--- a/resources/Assignment 02 - Q2 Primal.xlsx
+++ b/resources/Assignment 02 - Q2 Primal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490796" documentId="8_{FD2867A0-9144-4D1E-9B86-0202AC7BBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBD48F6-EC1A-4A2E-A34F-D750652ABFD9}"/>
+  <xr:revisionPtr revIDLastSave="492287" documentId="8_{FD2867A0-9144-4D1E-9B86-0202AC7BBCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723FC4F9-2A71-4BA5-BD11-2831DC7D08AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{48E82BD5-6FB6-44F0-8499-4D4B1DA3E6AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{48E82BD5-6FB6-44F0-8499-4D4B1DA3E6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$28</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$A$30</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$29</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$A$28:$A$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$3:$B$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$3:$B$4</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$3:$B$4</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Sheet1!$B$4</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -33,19 +33,19 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$24</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$28</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$30</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$29</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$28:$B$30</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">"integer"</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -526,23 +526,23 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="8.28515625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -566,12 +566,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,30 +579,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <f>250 * 2180</f>
-        <v>545000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <f>250</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <f>200 * 2180</f>
-        <v>436000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <f>200</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -624,18 +624,18 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -643,15 +643,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -667,42 +667,42 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1">
         <f>B8 * B3 + B9 * B4</f>
-        <v>2943000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>B13 * B$3 + C13 * B$4</f>
         <v>6000</v>
@@ -720,25 +720,28 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ref="A29:A30" si="0">B14 * B$3 + C14 * B$4</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <f>B20</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <f>B21</f>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>